--- a/fuentes/contenidos/grado10/guion05/Escaleta_MA_10_05_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_MA_10_05_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\Matematicas\fuentes\contenidos\grado10\guion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -877,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +950,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1006,82 +1012,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,9 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,96 +1073,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,2603 +1559,2605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U105"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="A19:V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23" style="18" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="31" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.265625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11" style="32" customWidth="1"/>
-    <col min="10" max="10" width="24.86328125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" style="40" customWidth="1"/>
-    <col min="13" max="14" width="9.265625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="37.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.59765625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="6.796875" style="28" customWidth="1"/>
-    <col min="18" max="18" width="23" style="46" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.73046875" style="46" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.86328125" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.73046875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="23" style="21" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="70" customWidth="1"/>
+    <col min="5" max="5" width="31" style="71" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="70" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="11" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="15" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="21" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="4" t="s">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="11"/>
+      <c r="O3" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="P3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="17">
         <v>6</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="6">
         <v>2</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="19">
         <v>6</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="S4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="6">
         <v>3</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="19">
         <v>6</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="S5" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="48" t="s">
+      <c r="T5" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="19">
         <v>6</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="44" t="s">
+      <c r="S6" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="U6" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="59"/>
+      <c r="G7" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="6">
         <v>5</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="22" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="19">
         <v>6</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="48" t="s">
+      <c r="T7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="6">
         <v>6</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="19">
         <v>6</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T8" s="48" t="s">
+      <c r="T8" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="19">
         <v>6</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S9" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T9" s="48" t="s">
+      <c r="T9" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="22" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="19">
         <v>6</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="S10" s="44" t="s">
+      <c r="S10" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="48" t="s">
+      <c r="T10" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="6">
         <v>9</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="19">
         <v>6</v>
       </c>
-      <c r="R11" s="45" t="s">
+      <c r="R11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="S11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="6">
         <v>10</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="19">
         <v>10</v>
       </c>
-      <c r="R12" s="45" t="s">
+      <c r="R12" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="6">
         <v>11</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="19">
         <v>6</v>
       </c>
-      <c r="R13" s="45" t="s">
+      <c r="R13" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="U13" s="44" t="s">
+      <c r="U13" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="6">
         <v>12</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39" t="s">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="19">
         <v>6</v>
       </c>
-      <c r="R14" s="45" t="s">
+      <c r="R14" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S14" s="44" t="s">
+      <c r="S14" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="U14" s="44" t="s">
+      <c r="U14" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="25" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="6">
         <v>13</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="22" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="19">
         <v>6</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="44" t="s">
+      <c r="S15" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="U15" s="44" t="s">
+      <c r="U15" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="6">
         <v>14</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39" t="s">
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="19">
         <v>6</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S16" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T16" s="48" t="s">
+      <c r="T16" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U16" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="25" t="s">
+      <c r="F17" s="59"/>
+      <c r="G17" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="6">
         <v>15</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="33" t="s">
+      <c r="J17" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39" t="s">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="27" t="s">
+      <c r="P17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="19">
         <v>6</v>
       </c>
-      <c r="R17" s="45" t="s">
+      <c r="R17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S17" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U17" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="6">
         <v>16</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39" t="s">
+      <c r="M18" s="14"/>
+      <c r="N18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="19">
         <v>6</v>
       </c>
-      <c r="R18" s="45" t="s">
+      <c r="R18" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S18" s="44" t="s">
+      <c r="S18" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T18" s="48" t="s">
+      <c r="T18" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="U18" s="44" t="s">
+      <c r="U18" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="77"/>
+      <c r="G19" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="79">
         <v>17</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="22" t="s">
+      <c r="N19" s="82"/>
+      <c r="O19" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="P19" s="27" t="s">
+      <c r="P19" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="84">
         <v>6</v>
       </c>
-      <c r="R19" s="45" t="s">
+      <c r="R19" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="44" t="s">
+      <c r="S19" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="T19" s="48" t="s">
+      <c r="T19" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="84" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="6" t="s">
+      <c r="V19" s="85"/>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="6">
         <v>18</v>
       </c>
-      <c r="I20" s="31" t="s">
+      <c r="I20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39" t="s">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="19">
         <v>6</v>
       </c>
-      <c r="R20" s="45" t="s">
+      <c r="R20" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S20" s="44" t="s">
+      <c r="S20" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T20" s="48" t="s">
+      <c r="T20" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="U20" s="44" t="s">
+      <c r="U20" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="59"/>
+      <c r="G21" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="6">
         <v>19</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="14"/>
+      <c r="N21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="19">
         <v>6</v>
       </c>
-      <c r="R21" s="45" t="s">
+      <c r="R21" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="48" t="s">
+      <c r="T21" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="U21" s="44" t="s">
+      <c r="U21" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="59"/>
+      <c r="G22" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="6">
         <v>20</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="37" t="s">
+      <c r="K22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
+      <c r="M22" s="14"/>
+      <c r="N22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="P22" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="19">
         <v>6</v>
       </c>
-      <c r="R22" s="45" t="s">
+      <c r="R22" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S22" s="44" t="s">
+      <c r="S22" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T22" s="48" t="s">
+      <c r="T22" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="U22" s="44" t="s">
+      <c r="U22" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="25" t="s">
+      <c r="F23" s="59"/>
+      <c r="G23" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="6">
         <v>21</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="K23" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39" t="s">
+      <c r="M23" s="14"/>
+      <c r="N23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P23" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="19">
         <v>6</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="R23" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="S23" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="U23" s="44" t="s">
+      <c r="U23" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="25" t="s">
+      <c r="F24" s="59"/>
+      <c r="G24" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="6">
         <v>22</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="33" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39" t="s">
+      <c r="M24" s="14"/>
+      <c r="N24" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="19">
         <v>6</v>
       </c>
-      <c r="R24" s="45" t="s">
+      <c r="R24" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S24" s="44" t="s">
+      <c r="S24" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T24" s="48" t="s">
+      <c r="T24" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="U24" s="44" t="s">
+      <c r="U24" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="25" t="s">
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="6">
         <v>23</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="22" t="s">
+      <c r="N25" s="14"/>
+      <c r="O25" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="19">
         <v>6</v>
       </c>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="S25" s="44" t="s">
+      <c r="S25" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T25" s="48" t="s">
+      <c r="T25" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="U25" s="44" t="s">
+      <c r="U25" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="25" t="s">
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="6">
         <v>24</v>
       </c>
-      <c r="I26" s="31" t="s">
+      <c r="I26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="37" t="s">
+      <c r="K26" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39" t="s">
+      <c r="M26" s="14"/>
+      <c r="N26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="P26" s="27" t="s">
+      <c r="P26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="19">
         <v>6</v>
       </c>
-      <c r="R26" s="45" t="s">
+      <c r="R26" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S26" s="44" t="s">
+      <c r="S26" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T26" s="48" t="s">
+      <c r="T26" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="U26" s="44" t="s">
+      <c r="U26" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="59"/>
+      <c r="G27" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="6">
         <v>25</v>
       </c>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="K27" s="37" t="s">
+      <c r="K27" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39" t="s">
+      <c r="M27" s="14"/>
+      <c r="N27" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="P27" s="27" t="s">
+      <c r="P27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="19">
         <v>6</v>
       </c>
-      <c r="R27" s="45" t="s">
+      <c r="R27" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="44" t="s">
+      <c r="S27" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="44" t="s">
+      <c r="U27" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="25" t="s">
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="6">
         <v>26</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="K28" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39" t="s">
+      <c r="M28" s="14"/>
+      <c r="N28" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="19">
         <v>6</v>
       </c>
-      <c r="R28" s="45" t="s">
+      <c r="R28" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S28" s="44" t="s">
+      <c r="S28" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="48" t="s">
+      <c r="T28" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="U28" s="44" t="s">
+      <c r="U28" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="25" t="s">
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="6">
         <v>27</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="22" t="s">
+      <c r="N29" s="14"/>
+      <c r="O29" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="19">
         <v>6</v>
       </c>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="S29" s="44" t="s">
+      <c r="S29" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="T29" s="48" t="s">
+      <c r="T29" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="U29" s="44" t="s">
+      <c r="U29" s="19" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="59"/>
+      <c r="G30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="6">
         <v>28</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="37" t="s">
+      <c r="J30" s="61"/>
+      <c r="K30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="44"/>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="6" t="s">
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="6">
         <v>29</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39" t="s">
+      <c r="M31" s="14"/>
+      <c r="N31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="P31" s="27" t="s">
+      <c r="P31" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="19">
         <v>6</v>
       </c>
-      <c r="R31" s="45" t="s">
+      <c r="R31" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="44" t="s">
+      <c r="S31" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="U31" s="44" t="s">
+      <c r="U31" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="64"/>
+      <c r="E32" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="6">
         <v>30</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="44"/>
-    </row>
-    <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="44"/>
-    </row>
-    <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="44"/>
-    </row>
-    <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="44"/>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="8" t="s">
+      <c r="J32" s="65"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="19"/>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="19"/>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="19"/>
+    </row>
+    <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="19"/>
+    </row>
+    <row r="36" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="44"/>
-    </row>
-    <row r="37" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="44"/>
-    </row>
-    <row r="38" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="44"/>
-    </row>
-    <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="44"/>
-    </row>
-    <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="5"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="44"/>
-    </row>
-    <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="44"/>
-    </row>
-    <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="5"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="44"/>
-    </row>
-    <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="44"/>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="44"/>
-    </row>
-    <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="5"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="44"/>
-    </row>
-    <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="44"/>
-    </row>
-    <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="44"/>
-    </row>
-    <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="44"/>
-    </row>
-    <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="5"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="44"/>
-    </row>
-    <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="5"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="44"/>
-    </row>
-    <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="5"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="44"/>
-    </row>
-    <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="5"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="48"/>
-      <c r="U52" s="44"/>
-    </row>
-    <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="5"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="48"/>
-      <c r="U53" s="44"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="5"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="48"/>
-      <c r="U54" s="44"/>
-    </row>
-    <row r="69" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="18" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="19"/>
+    </row>
+    <row r="37" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="19"/>
+    </row>
+    <row r="38" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="19"/>
+    </row>
+    <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="19"/>
+    </row>
+    <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="19"/>
+    </row>
+    <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="66"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="19"/>
+    </row>
+    <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="19"/>
+    </row>
+    <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="19"/>
+    </row>
+    <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="19"/>
+    </row>
+    <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="19"/>
+    </row>
+    <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="19"/>
+    </row>
+    <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="19"/>
+    </row>
+    <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="19"/>
+    </row>
+    <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="19"/>
+    </row>
+    <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="19"/>
+    </row>
+    <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="19"/>
+    </row>
+    <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="19"/>
+    </row>
+    <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="19"/>
+    </row>
+    <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="19"/>
+    </row>
+    <row r="69" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="18" t="s">
+    <row r="70" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="18" t="s">
+    <row r="73" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="18" t="s">
+    <row r="81" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="18" t="s">
+    <row r="82" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="18" t="s">
+    <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A89" s="18" t="s">
+    <row r="89" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A90" s="18" t="s">
+    <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A91" s="18" t="s">
+    <row r="91" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A95" s="18" t="s">
+    <row r="95" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A96" s="18" t="s">
+    <row r="96" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="18" t="s">
+    <row r="98" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="18" t="s">
+    <row r="99" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A100" s="18" t="s">
+    <row r="100" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="18" t="s">
+    <row r="101" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="18" t="s">
+    <row r="105" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4141,12 +4166,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4161,6 +4180,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4211,27 +4236,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -4248,7 +4273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4272,7 +4297,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4291,7 +4316,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4310,7 +4335,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4326,7 +4351,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4343,7 +4368,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4360,7 +4385,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4375,7 +4400,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4390,7 +4415,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4405,7 +4430,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4420,7 +4445,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4435,7 +4460,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4450,7 +4475,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4465,7 +4490,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4480,7 +4505,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4495,7 +4520,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4509,7 +4534,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4523,7 +4548,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4537,7 +4562,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4551,7 +4576,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4566,7 +4591,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4581,7 +4606,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4596,7 +4621,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4611,7 +4636,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4626,7 +4651,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4641,7 +4666,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4656,7 +4681,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4671,7 +4696,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4686,7 +4711,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4701,7 +4726,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4716,7 +4741,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4731,7 +4756,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4746,7 +4771,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4761,7 +4786,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4776,7 +4801,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4791,7 +4816,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4806,7 +4831,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4821,7 +4846,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4836,7 +4861,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4851,7 +4876,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4866,7 +4891,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4881,7 +4906,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4896,7 +4921,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4911,7 +4936,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4926,7 +4951,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4941,7 +4966,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4956,7 +4981,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -4971,7 +4996,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4983,7 +5008,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4995,7 +5020,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5008,7 +5033,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5021,7 +5046,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5034,7 +5059,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5047,7 +5072,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5060,7 +5085,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5073,7 +5098,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5086,7 +5111,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5099,7 +5124,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5112,7 +5137,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5125,7 +5150,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5138,7 +5163,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5151,7 +5176,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5164,7 +5189,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5177,7 +5202,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5190,7 +5215,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5203,7 +5228,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5216,7 +5241,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5229,7 +5254,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -5242,7 +5267,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5255,7 +5280,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5269,7 +5294,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5283,7 +5308,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5297,7 +5322,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5311,7 +5336,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5325,7 +5350,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5339,7 +5364,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5353,7 +5378,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5367,7 +5392,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5381,7 +5406,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5395,7 +5420,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5409,7 +5434,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5423,7 +5448,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5437,7 +5462,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5451,7 +5476,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5465,7 +5490,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5479,7 +5504,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5493,7 +5518,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5507,7 +5532,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5521,7 +5546,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5535,7 +5560,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5549,7 +5574,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5563,7 +5588,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5577,7 +5602,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5591,7 +5616,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5605,7 +5630,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5619,7 +5644,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5633,7 +5658,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5647,7 +5672,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5661,7 +5686,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5675,7 +5700,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5689,7 +5714,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5703,7 +5728,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5717,7 +5742,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5731,7 +5756,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5745,7 +5770,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5759,7 +5784,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5773,7 +5798,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5787,7 +5812,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5801,7 +5826,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5815,7 +5840,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5829,7 +5854,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5843,7 +5868,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5857,7 +5882,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5871,7 +5896,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5885,7 +5910,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5899,7 +5924,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5913,7 +5938,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5927,7 +5952,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5941,7 +5966,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5955,7 +5980,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5969,7 +5994,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5983,7 +6008,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5997,7 +6022,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6011,7 +6036,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6025,7 +6050,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6039,7 +6064,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6053,7 +6078,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6067,7 +6092,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6081,7 +6106,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6095,7 +6120,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6109,7 +6134,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6123,7 +6148,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado10/guion05/Escaleta_MA_10_05_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion05/Escaleta_MA_10_05_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="269">
   <si>
     <t>Asignatura</t>
   </si>
@@ -877,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +956,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1012,11 +1018,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1255,6 +1264,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,2603 +1576,2605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V19" sqref="A19:V19"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="23" style="21" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="31" style="71" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="11" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="15" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="14.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="23" style="22" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="31" style="72" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="73" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="71" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11" style="9" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="16" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="22" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="43" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="88">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="56" t="s">
+      <c r="N3" s="12"/>
+      <c r="O3" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="18">
         <v>6</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="87">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="20">
         <v>6</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="87">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="20">
         <v>6</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="63" t="s">
+      <c r="T5" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="87">
         <v>4</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="62" t="s">
+      <c r="O6" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="20">
         <v>6</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T6" s="63" t="s">
+      <c r="T6" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="87">
         <v>5</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="62" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="Q7" s="20">
         <v>6</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T7" s="63" t="s">
+      <c r="T7" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="87">
         <v>6</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="20">
         <v>6</v>
       </c>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T8" s="63" t="s">
+      <c r="T8" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="U8" s="19" t="s">
+      <c r="U8" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="62" t="s">
+      <c r="O9" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="Q9" s="20">
         <v>6</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="S9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T9" s="63" t="s">
+      <c r="T9" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="U9" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="87">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="62" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="20">
         <v>6</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="63" t="s">
+      <c r="T10" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="87">
         <v>9</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="62" t="s">
+      <c r="O11" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="Q11" s="20">
         <v>6</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="R11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T11" s="63" t="s">
+      <c r="T11" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="U11" s="19" t="s">
+      <c r="U11" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="87">
         <v>10</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="62" t="s">
+      <c r="O12" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="20">
         <v>10</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="T12" s="63" t="s">
+      <c r="T12" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="U12" s="19" t="s">
+      <c r="U12" s="20" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="87">
         <v>11</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="62" t="s">
+      <c r="O13" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="20">
         <v>6</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S13" s="19" t="s">
+      <c r="S13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T13" s="63" t="s">
+      <c r="T13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="62" t="s">
+      <c r="O14" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="20">
         <v>6</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T14" s="63" t="s">
+      <c r="T14" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="U14" s="19" t="s">
+      <c r="U14" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="87">
         <v>13</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="62" t="s">
+      <c r="M15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="20">
         <v>6</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T15" s="63" t="s">
+      <c r="T15" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="U15" s="19" t="s">
+      <c r="U15" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="J16" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="62" t="s">
+      <c r="O16" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="20">
         <v>6</v>
       </c>
-      <c r="R16" s="20" t="s">
+      <c r="R16" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T16" s="63" t="s">
+      <c r="T16" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="87">
         <v>15</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="62" t="s">
+      <c r="O17" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="20">
         <v>6</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T17" s="63" t="s">
+      <c r="T17" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="U17" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="20">
         <v>6</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="R18" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T18" s="63" t="s">
+      <c r="T18" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="U18" s="19" t="s">
+      <c r="U18" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78" t="s">
+      <c r="F19" s="78"/>
+      <c r="G19" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="79">
+      <c r="H19" s="80">
         <v>17</v>
       </c>
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="82" t="s">
+      <c r="M19" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="83" t="s">
+      <c r="N19" s="83"/>
+      <c r="O19" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="P19" s="84" t="s">
+      <c r="P19" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="85">
         <v>6</v>
       </c>
-      <c r="R19" s="84" t="s">
+      <c r="R19" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="S19" s="84" t="s">
+      <c r="S19" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="T19" s="84" t="s">
+      <c r="T19" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="84" t="s">
+      <c r="U19" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="V19" s="85"/>
+      <c r="V19" s="86"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="87">
         <v>18</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="62" t="s">
+      <c r="O20" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="20">
         <v>6</v>
       </c>
-      <c r="R20" s="20" t="s">
+      <c r="R20" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T20" s="63" t="s">
+      <c r="T20" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="U20" s="19" t="s">
+      <c r="U20" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="87">
         <v>19</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="62" t="s">
+      <c r="O21" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="20">
         <v>6</v>
       </c>
-      <c r="R21" s="20" t="s">
+      <c r="R21" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="S21" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="63" t="s">
+      <c r="T21" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="U21" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="7">
         <v>20</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14" t="s">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O22" s="62" t="s">
+      <c r="O22" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="20">
         <v>6</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S22" s="19" t="s">
+      <c r="S22" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T22" s="63" t="s">
+      <c r="T22" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="7">
         <v>21</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="62" t="s">
+      <c r="O23" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="P23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="20">
         <v>6</v>
       </c>
-      <c r="R23" s="20" t="s">
+      <c r="R23" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S23" s="19" t="s">
+      <c r="S23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T23" s="63" t="s">
+      <c r="T23" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="U23" s="19" t="s">
+      <c r="U23" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60" t="s">
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="61" t="s">
+      <c r="I24" s="8"/>
+      <c r="J24" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="62" t="s">
+      <c r="O24" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="20">
         <v>6</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T24" s="63" t="s">
+      <c r="T24" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="U24" s="19" t="s">
+      <c r="U24" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60" t="s">
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="87">
         <v>23</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="62" t="s">
+      <c r="N25" s="15"/>
+      <c r="O25" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="P25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="20">
         <v>6</v>
       </c>
-      <c r="R25" s="20" t="s">
+      <c r="R25" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T25" s="63" t="s">
+      <c r="T25" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="U25" s="19" t="s">
+      <c r="U25" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60" t="s">
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="87">
         <v>24</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J26" s="61" t="s">
+      <c r="J26" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14" t="s">
+      <c r="M26" s="15"/>
+      <c r="N26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="62" t="s">
+      <c r="O26" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="20">
         <v>6</v>
       </c>
-      <c r="R26" s="20" t="s">
+      <c r="R26" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T26" s="63" t="s">
+      <c r="T26" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="U26" s="19" t="s">
+      <c r="U26" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="7">
         <v>25</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14" t="s">
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="62" t="s">
+      <c r="O27" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="20">
         <v>6</v>
       </c>
-      <c r="R27" s="20" t="s">
+      <c r="R27" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T27" s="63" t="s">
+      <c r="T27" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="U27" s="19" t="s">
+      <c r="U27" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="87">
         <v>26</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14" t="s">
+      <c r="M28" s="15"/>
+      <c r="N28" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="O28" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="20">
         <v>6</v>
       </c>
-      <c r="R28" s="20" t="s">
+      <c r="R28" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S28" s="19" t="s">
+      <c r="S28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="63" t="s">
+      <c r="T28" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="U28" s="19" t="s">
+      <c r="U28" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60" t="s">
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="87">
         <v>27</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J29" s="61" t="s">
+      <c r="J29" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="62" t="s">
+      <c r="N29" s="15"/>
+      <c r="O29" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="20">
         <v>6</v>
       </c>
-      <c r="R29" s="20" t="s">
+      <c r="R29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S29" s="19" t="s">
+      <c r="S29" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="T29" s="63" t="s">
+      <c r="T29" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="U29" s="19" t="s">
+      <c r="U29" s="20" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60" t="s">
+      <c r="F30" s="60"/>
+      <c r="G30" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="7">
         <v>28</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="62"/>
+      <c r="K30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="19"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="20"/>
     </row>
     <row r="31" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="87">
         <v>29</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14" t="s">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="62" t="s">
+      <c r="O31" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="20">
         <v>6</v>
       </c>
-      <c r="R31" s="20" t="s">
+      <c r="R31" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="19" t="s">
+      <c r="S31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="T31" s="63" t="s">
+      <c r="T31" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="U31" s="19" t="s">
+      <c r="U31" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="58" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="7">
         <v>30</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="19"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="63"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="20"/>
     </row>
     <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="19"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="20"/>
     </row>
     <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="19"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="20"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="19"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="20"/>
     </row>
     <row r="36" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="58" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="19"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="20"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="19"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="20"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="19"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="20"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="19"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="20"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="19"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="20"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="19"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="20"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="19"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="20"/>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="19"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="20"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="19"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="20"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="19"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="20"/>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="19"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="20"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="19"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="20"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="19"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="20"/>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="19"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="20"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="19"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="20"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="19"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="20"/>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="19"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="20"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="19"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="20"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="19"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="64"/>
+      <c r="U54" s="20"/>
     </row>
     <row r="69" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="22" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="22" t="s">
         <v>115</v>
       </c>
     </row>
